--- a/P3/Results/Data/Clay/Clay 02-12-2024.xlsx
+++ b/P3/Results/Data/Clay/Clay 02-12-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\OneDrive\Dokumenter\GitHub\Robotteknologi-3.-semester\P3\Results\Data\Clay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CED361F-B2C9-4941-811F-6CD72C4E29C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED25A30-5729-4B98-8A03-02FC5FB2F6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>AG Input</t>
   </si>
   <si>
-    <t>Total correct (%)</t>
-  </si>
-  <si>
     <t>Clay (g)</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>White light</t>
+  </si>
+  <si>
+    <t>Average success rate (%)</t>
   </si>
 </sst>
 </file>
@@ -287,15 +287,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total correct</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> images</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> with different clay amounts</a:t>
+              <a:t>Success rate at different amounts of gypsum</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -345,7 +337,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total correct (%)</c:v>
+                  <c:v>Average success rate (%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -418,9 +410,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -463,7 +453,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -531,11 +521,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Clay</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t> (g)</a:t>
+                  <a:t>Clay (g)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -655,7 +641,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Correct (%)</a:t>
+                  <a:t>Success rate (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -733,7 +719,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1280,27 +1266,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:sysClr>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1308,14 +1280,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="da-DK" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="da-DK"/>
               <a:t>Average AG in 0.5g clay</a:t>
             </a:r>
           </a:p>
@@ -1333,27 +1298,13 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
+          <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:sysClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1539,12 +1490,45 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1356582863"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1594,13 +1578,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Average</a:t>
+                  <a:t>Average AG</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t> AG</a:t>
-                </a:r>
-                <a:endParaRPr lang="da-DK"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1677,7 +1656,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4987,15 +4966,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898C2D57-096F-442D-846A-938D525EB3D5}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>44</v>
@@ -5025,7 +5004,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -5082,7 +5061,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>10.888</v>
@@ -5118,7 +5097,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>10.591428571428571</v>
@@ -5618,7 +5597,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <f>SUM(B4:B9)/5</f>
@@ -5659,7 +5638,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <f>SUM(B2:B4,B10,B12,B13,B14)/7</f>

--- a/P3/Results/Data/Clay/Clay 02-12-2024.xlsx
+++ b/P3/Results/Data/Clay/Clay 02-12-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\OneDrive\Dokumenter\GitHub\Robotteknologi-3.-semester\P3\Results\Data\Clay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED25A30-5729-4B98-8A03-02FC5FB2F6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6888108-8242-4F5B-981B-048257167D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4966,7 +4966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898C2D57-096F-442D-846A-938D525EB3D5}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
